--- a/ResultadoEleicoesDistritos/VILA REAL_VILA REAL.xlsx
+++ b/ResultadoEleicoesDistritos/VILA REAL_VILA REAL.xlsx
@@ -597,28 +597,28 @@
         <v>14797</v>
       </c>
       <c r="H2" t="n">
-        <v>600</v>
+        <v>567</v>
       </c>
       <c r="I2" t="n">
-        <v>1475</v>
+        <v>1465</v>
       </c>
       <c r="J2" t="n">
-        <v>6028</v>
+        <v>6042</v>
       </c>
       <c r="K2" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L2" t="n">
-        <v>1741</v>
+        <v>1616</v>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="N2" t="n">
-        <v>1044</v>
+        <v>1053</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
         <v>21</v>
@@ -627,34 +627,34 @@
         <v>10</v>
       </c>
       <c r="R2" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="S2" t="n">
-        <v>675</v>
+        <v>648</v>
       </c>
       <c r="T2" t="n">
-        <v>1047</v>
+        <v>1105</v>
       </c>
       <c r="U2" t="n">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="V2" t="n">
-        <v>9463</v>
+        <v>9477</v>
       </c>
       <c r="W2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>9432</v>
+        <v>9532</v>
       </c>
       <c r="Y2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="AA2" t="n">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
